--- a/target/classes/Excel/OrangeHRM.xlsx
+++ b/target/classes/Excel/OrangeHRM.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t xml:space="preserve">First Name </t>
   </si>
@@ -246,38 +246,13 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t>Sam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,26 +649,27 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0.28515625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -793,12 +769,8 @@
         <v>49</v>
       </c>
       <c r="Q2" s="4"/>
-      <c r="R2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -838,12 +810,8 @@
       <c r="Q3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -862,7 +830,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>25</v>
@@ -885,12 +853,8 @@
       <c r="Q4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -926,12 +890,8 @@
       <c r="Q5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -964,18 +924,14 @@
       <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="3" t="s">
         <v>62</v>
       </c>
@@ -983,12 +939,8 @@
         <v>50</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -998,7 +950,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -1013,20 +965,16 @@
       <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>51</v>
@@ -1034,12 +982,8 @@
       <c r="Q7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1062,18 +1006,14 @@
       <c r="J8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="3" t="s">
         <v>63</v>
       </c>
@@ -1083,12 +1023,8 @@
       <c r="Q8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1111,18 +1047,14 @@
       <c r="J9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
         <v>64</v>
       </c>
@@ -1132,9 +1064,7 @@
       <c r="Q9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1156,20 +1086,16 @@
       <c r="J10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>51</v>
@@ -1177,12 +1103,8 @@
       <c r="Q10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1209,18 +1131,14 @@
       <c r="J11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="3" t="s">
         <v>65</v>
       </c>
@@ -1230,12 +1148,8 @@
       <c r="Q11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/Excel/OrangeHRM.xlsx
+++ b/target/classes/Excel/OrangeHRM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
   <si>
     <t xml:space="preserve">First Name </t>
   </si>
@@ -246,7 +246,31 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>Sam</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -648,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,8 +793,12 @@
         <v>49</v>
       </c>
       <c r="Q2" s="4"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -810,8 +838,12 @@
       <c r="Q3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -830,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>25</v>
@@ -853,8 +885,12 @@
       <c r="Q4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -890,8 +926,12 @@
       <c r="Q5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -924,14 +964,18 @@
       <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O6" s="3" t="s">
         <v>62</v>
       </c>
@@ -939,8 +983,12 @@
         <v>50</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -950,7 +998,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -965,16 +1013,20 @@
       <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="O7" s="3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>51</v>
@@ -982,8 +1034,12 @@
       <c r="Q7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1006,14 +1062,18 @@
       <c r="J8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O8" s="3" t="s">
         <v>63</v>
       </c>
@@ -1023,8 +1083,12 @@
       <c r="Q8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1047,14 +1111,18 @@
       <c r="J9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O9" s="3" t="s">
         <v>64</v>
       </c>
@@ -1064,8 +1132,12 @@
       <c r="Q9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1086,16 +1158,20 @@
       <c r="J10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="L10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O10" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>51</v>
@@ -1103,8 +1179,12 @@
       <c r="Q10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1131,14 +1211,18 @@
       <c r="J11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="L11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="O11" s="3" t="s">
         <v>65</v>
       </c>
@@ -1148,8 +1232,12 @@
       <c r="Q11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/Excel/OrangeHRM.xlsx
+++ b/target/classes/Excel/OrangeHRM.xlsx
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +691,7 @@
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="0.28515625" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
